--- a/doc/Spring_20190816.xlsx
+++ b/doc/Spring_20190816.xlsx
@@ -18,8 +18,9 @@
     <sheet name="전략패턴" sheetId="12" r:id="rId9"/>
     <sheet name="제어의 역전" sheetId="13" r:id="rId10"/>
     <sheet name="Spring 시작" sheetId="14" r:id="rId11"/>
-    <sheet name="temp" sheetId="5" r:id="rId12"/>
-    <sheet name="용어집" sheetId="10" r:id="rId13"/>
+    <sheet name="temp (2)" sheetId="15" r:id="rId12"/>
+    <sheet name="temp" sheetId="5" r:id="rId13"/>
+    <sheet name="용어집" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="429">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1613,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>eHR0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>@Configuration</t>
   </si>
   <si>
@@ -1751,10 +1756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eHR0107 ,eHR0108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eHR0108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1791,6 +1792,14 @@
   </si>
   <si>
     <t>객체를 모두 미리 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHR0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHR0108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2456,7 +2465,7 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2711,6 +2720,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36532,6 +36544,183 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="228600"/>
+          <a:ext cx="2162175" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="238125"/>
+          <a:ext cx="1152525" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>글자</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="361950"/>
+          <a:ext cx="1485900" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -55174,14 +55363,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:rowOff>68676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -56199,6 +56388,254 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="TextBox 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="64998600"/>
+          <a:ext cx="8562975" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,014 INFO  [main] xml.XmlBeanDefinitionReader (XmlBeanDefinitionReader.java:317)     - Loading XML bean definitions from class path resource [applicationContext02.xml]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,086 INFO  [main] support.GenericXmlApplicationContext (AbstractApplicationContext.java:583)     - Refreshing org.springframework.context.support.GenericXmlApplicationContext@78e03bb5: startup date [Tue Aug 20 15:36:10 KST 2019]; root of context hierarchy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,113 INFO  [main] ehr.TvClient02    (TvClient02.java:12)     - ----------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,114 INFO  [main] ehr.TvClient02    (TvClient02.java:13)     - context : org.springframework.context.support.GenericXmlApplicationContext@78e03bb5: startup date [Tue Aug 20 15:36:10 KST 2019]; root of context hierarchy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,114 INFO  [main] ehr.TvClient02    (TvClient02.java:14)     - ----------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,122 INFO  [main] ehr.Tv            (SamsungTV.java:16)     - ------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,122 INFO  [main] ehr.Tv            (SamsungTV.java:17)     - init : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>초기화</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,123 INFO  [main] ehr.Tv            (SamsungTV.java:18)     - ------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,123 INFO  [main] ehr.TvClient02    (TvClient02.java:20)     - ----------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,123 INFO  [main] ehr.TvClient02    (TvClient02.java:21)     - SamsungTV1 : com.ehr.SamsungTV@5e5792a0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,124 INFO  [main] ehr.TvClient02    (TvClient02.java:22)     - SamsungTV2 : com.ehr.SamsungTV@5e5792a0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,124 INFO  [main] ehr.TvClient02    (TvClient02.java:23)     - SamsungTV3 : com.ehr.SamsungTV@5e5792a0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2019-08-20 15:36:10,124 INFO  [main] ehr.TvClient02    (TvClient02.java:24)     - ----------------------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5127" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8601075" y="51996975"/>
+          <a:ext cx="5153025" cy="3171825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -56856,7 +57293,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -57070,11 +57507,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R255"/>
+  <dimension ref="A1:R316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C317" sqref="C317"/>
+      <pane ySplit="5" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N205" sqref="N205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -57090,9 +57527,11 @@
         <v>321</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1" s="31"/>
+        <v>378</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>428</v>
+      </c>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -57152,48 +57591,48 @@
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
       <c r="B8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="B9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="B34" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="10:10" ht="18" customHeight="1">
       <c r="J71" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="10:10" ht="18" customHeight="1">
       <c r="J72" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="2:2" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="B90" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="2:2" ht="18" customHeight="1">
       <c r="B109" s="65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134" spans="2:14" ht="18" customHeight="1">
       <c r="B134" s="33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" spans="2:14" ht="18" customHeight="1">
@@ -57201,7 +57640,7 @@
     </row>
     <row r="136" spans="2:14" ht="18" customHeight="1">
       <c r="B136" s="71" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C136" s="71"/>
       <c r="D136" s="71"/>
@@ -57218,7 +57657,7 @@
     </row>
     <row r="137" spans="2:14" ht="18" customHeight="1">
       <c r="B137" s="71" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C137" s="71"/>
       <c r="D137" s="71"/>
@@ -57235,7 +57674,7 @@
     </row>
     <row r="148" spans="2:17" ht="18" customHeight="1">
       <c r="B148" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
@@ -57255,7 +57694,7 @@
     </row>
     <row r="149" spans="2:17" ht="18" customHeight="1">
       <c r="B149" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
@@ -57275,7 +57714,7 @@
     </row>
     <row r="150" spans="2:17" ht="18" customHeight="1">
       <c r="B150" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
@@ -57295,7 +57734,7 @@
     </row>
     <row r="151" spans="2:17" ht="18" customHeight="1">
       <c r="B151" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
@@ -57315,7 +57754,7 @@
     </row>
     <row r="152" spans="2:17" ht="18" customHeight="1">
       <c r="B152" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C152" s="31"/>
       <c r="D152" s="31"/>
@@ -57335,61 +57774,61 @@
     </row>
     <row r="155" spans="2:17" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="B155" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="178" spans="2:4" ht="18" customHeight="1">
       <c r="B178" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="179" spans="2:4" ht="18" customHeight="1">
       <c r="B179" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181" spans="2:4" s="31" customFormat="1" ht="18" customHeight="1"/>
     <row r="183" spans="2:4" ht="18" customHeight="1">
       <c r="B183" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="2:4" ht="18" customHeight="1">
       <c r="B184" s="73" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C184" s="72" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185" spans="2:4" ht="18" customHeight="1">
       <c r="B185" s="74" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C185" s="72" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="2:4" ht="18" customHeight="1">
       <c r="B186" s="74" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C186" s="72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="2:4" ht="18" customHeight="1">
       <c r="B188" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" spans="2:3" s="31" customFormat="1" ht="18" customHeight="1">
@@ -57399,12 +57838,12 @@
     </row>
     <row r="212" spans="2:3" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="B212" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="18" customHeight="1">
       <c r="B214" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="18" customHeight="1">
@@ -57412,7 +57851,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="18" customHeight="1">
@@ -57420,16 +57859,16 @@
         <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="242" spans="3:17" ht="18" customHeight="1" thickBot="1"/>
     <row r="243" spans="3:17" ht="18" customHeight="1" thickBot="1">
       <c r="C243" s="75" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D243" s="75" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E243" s="76"/>
       <c r="F243" s="76"/>
@@ -57671,6 +58110,101 @@
       <c r="P255" s="76"/>
       <c r="Q255" s="77"/>
     </row>
+    <row r="316" s="31" customFormat="1" ht="18" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="A1:A5" location="'2019목차'!A1" display="'2019목차'!A1"/>
+    <hyperlink ref="C2" location="용어집!A1" display="용어집"/>
+    <hyperlink ref="C1" location="'Spring 시작'!B211" display="eHR0108"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1">
+      <c r="A2" s="61"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1">
+      <c r="A3" s="61"/>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1">
+      <c r="A5" s="61"/>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="31" customFormat="1" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A5"/>
@@ -57684,12 +58218,11 @@
     <hyperlink ref="C2" location="용어집!A1" display="용어집"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -57779,7 +58312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -62168,7 +62701,7 @@
     </row>
     <row r="160" spans="1:23" ht="18" customHeight="1">
       <c r="B160" s="68" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C160" s="68"/>
       <c r="D160" s="68"/>
